--- a/biology/Botanique/Sporange/Sporange.xlsx
+++ b/biology/Botanique/Sporange/Sporange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sporange est une structure végétale qui produit et qui contient des spores. Le sporange est porté par le sporophyte.
 Les sporanges se rencontrent uniquement chez les Embryophytes appelés parfois Archégoniates (Bryophytes, Ptéridophytes, Angiospermes et Gymnospermes).
@@ -518,7 +530,9 @@
           <t>Synangium</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe de sporanges devenus soudés est appelé synangium . Cette structure est particulièrement présente dans Psilotum et Marattiaceae, tels que Christensenia, Eupodium et Marattia.
 </t>
